--- a/Dev/PythonDev/Testing/UserEvaluation/Total.xlsx
+++ b/Dev/PythonDev/Testing/UserEvaluation/Total.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\UserEvaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Testing\UserEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8EBD-365D-46B6-9201-EBDF687B6495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417F72D-8F6E-4FD9-8ACE-7E6075F11987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,11 +241,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -255,7 +255,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Participants</a:t>
+              <a:t>How user-friendly was the user interface? (Combined)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -273,11 +273,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -292,86 +292,44 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -381,78 +339,266 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Employees</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Visitors</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECFE-4CA4-9406-C1AE9BE4E8FF}"/>
+              <c16:uniqueId val="{00000000-7A58-4D22-B443-DF59F4582F78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1572357136"/>
+        <c:axId val="1524980112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1572357136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1524980112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1524980112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1572357136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -461,42 +607,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -509,30 +619,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -598,43 +692,43 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -642,30 +736,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -678,64 +756,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -753,13 +807,6 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -775,13 +822,6 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -794,18 +834,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -815,13 +855,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -845,17 +889,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -872,15 +916,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -896,12 +940,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -915,7 +958,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -941,24 +984,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -972,24 +1003,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1003,54 +1022,45 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1058,7 +1068,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1071,17 +1081,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1099,9 +1109,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1113,12 +1123,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1134,6 +1144,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1142,12 +1153,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1162,7 +1173,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1175,14 +1186,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1202,23 +1219,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>254181</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>239487</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58239</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>143420</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0967930C-71FA-4182-B3E4-AD03B5EEF1EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C36C5A-BB9C-46AB-880E-A7B6BE422ECC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dev/PythonDev/Testing/UserEvaluation/Total.xlsx
+++ b/Dev/PythonDev/Testing/UserEvaluation/Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Testing\UserEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417F72D-8F6E-4FD9-8ACE-7E6075F11987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72C90C-C084-4155-BBE3-494F92A2B72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,1042 +218,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>How user-friendly was the user interface? (Combined)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$35:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A58-4D22-B443-DF59F4582F78}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
-        <c:axId val="1572357136"/>
-        <c:axId val="1524980112"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1572357136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t> Rating</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1524980112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1524980112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1572357136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>239487</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>58239</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>143420</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C36C5A-BB9C-46AB-880E-A7B6BE422ECC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,6 +1128,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>